--- a/biology/Botanique/Phytelepheae/Phytelepheae.xlsx
+++ b/biology/Botanique/Phytelepheae/Phytelepheae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phytelepheae est une tribu de plantes de la sous-famille des Ceroxyloideae et de la famille des Arecaceae (palmiers). Le taxon contient trois genres.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Palmiers dioïques, à stipe moyen à grands, acaules ou dressés, à inflorescences staminées ressemblant à des épis, tandis que les pistils sont ramifiés et étalés. Le fruit est généralement porté en grappes denses, chacune contenant de cinq à dix graines.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique du Sud
 </t>
@@ -573,7 +589,9 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ammandra O.F. Cook
 Aphandra Barfod
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Horaninow P., 1847. Characteres essentiales familiarum, ac tribuum regni vegetabilis et amphorganici ad leges tetractydis naturae conscripti accedit enumeratio generum magis notorum et organographiae supplementum. VIII+301 pp. Typis K. Wienhöberianis, Petropoli, St. Petersburg: 38.</t>
         </is>
